--- a/Users Loads36.xlsx
+++ b/Users Loads36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8727254793972483</v>
+        <v>1.527852965654104</v>
       </c>
       <c r="C2" t="n">
-        <v>2.96251897382348</v>
+        <v>4.699268422297753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2056766655853721</v>
+        <v>0.3014941965849063</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.392929054925804</v>
+        <v>2.155839512772039</v>
       </c>
       <c r="C3" t="n">
-        <v>6.710667624488964</v>
+        <v>4.424396046613599</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7696959958467429</v>
+        <v>0.7276193833650689</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.489937263311957</v>
+        <v>2.58047749258405</v>
       </c>
       <c r="C4" t="n">
-        <v>2.670515868146002</v>
+        <v>4.470725091470779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2781419116234178</v>
+        <v>0.3700035555630111</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.985505134621939</v>
+        <v>2.800215821865029</v>
       </c>
       <c r="C5" t="n">
-        <v>6.413036568820408</v>
+        <v>5.602211197387065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6832459501690925</v>
+        <v>0.67767422868806</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.111088370378907</v>
+        <v>5.511674842691556</v>
       </c>
       <c r="C6" t="n">
-        <v>5.733529042682888</v>
+        <v>4.002941840730788</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4448560019361242</v>
+        <v>0.3214180238795705</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.734774103762835</v>
+        <v>5.624168392941499</v>
       </c>
       <c r="C7" t="n">
-        <v>3.523534953935231</v>
+        <v>6.981290240127544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.176453350301615</v>
+        <v>0.4313623774350077</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.360581273490415</v>
+        <v>8.041671999376716</v>
       </c>
       <c r="C8" t="n">
-        <v>4.693318282397901</v>
+        <v>2.972654811474632</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5129719057557568</v>
+        <v>0.3835682968684056</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.565838860890088</v>
+        <v>8.434695116509626</v>
       </c>
       <c r="C9" t="n">
-        <v>6.751150804588875</v>
+        <v>7.385058035174723</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2699761514664741</v>
+        <v>0.4922814759238773</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.285055508091233</v>
+        <v>8.973647437831126</v>
       </c>
       <c r="C10" t="n">
-        <v>2.712331150631986</v>
+        <v>6.737066325119931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3602806713421135</v>
+        <v>0.5942251531495758</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.662621449956904</v>
+        <v>10.48228132284814</v>
       </c>
       <c r="C11" t="n">
-        <v>2.081671911838989</v>
+        <v>2.231692975078113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.394524555060404</v>
+        <v>0.4243068872680537</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.851730571670519</v>
+        <v>12.45252552987654</v>
       </c>
       <c r="C12" t="n">
-        <v>5.749354621726741</v>
+        <v>2.391133896799702</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3633407947976913</v>
+        <v>0.3529046834165541</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.41037789647132</v>
+        <v>12.5067392920906</v>
       </c>
       <c r="C13" t="n">
-        <v>3.072222914340887</v>
+        <v>4.857865801430253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2941303584764199</v>
+        <v>0.6075826710548347</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.77590995724079</v>
+        <v>12.64566758549086</v>
       </c>
       <c r="C14" t="n">
-        <v>2.846744300198602</v>
+        <v>4.523798501815038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.380337305523242</v>
+        <v>0.4584832467254692</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.13153856775682</v>
+        <v>13.75719688245225</v>
       </c>
       <c r="C15" t="n">
-        <v>5.102209806153924</v>
+        <v>11.17563477036574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1345652745528531</v>
+        <v>0.4270376344875665</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.15586887650736</v>
+        <v>14.37405352550175</v>
       </c>
       <c r="C16" t="n">
-        <v>1.332978650682498</v>
+        <v>4.194803274778566</v>
       </c>
       <c r="D16" t="n">
-        <v>0.188438958109976</v>
+        <v>0.3091765336655364</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.59247776909044</v>
+        <v>14.38111576298089</v>
       </c>
       <c r="C17" t="n">
-        <v>5.994437555011751</v>
+        <v>3.007164442655625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7815170126899216</v>
+        <v>0.1737223144331752</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16.70449429521132</v>
+        <v>14.86624361211943</v>
       </c>
       <c r="C18" t="n">
-        <v>7.60200505547771</v>
+        <v>5.307788149703599</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4936840540770005</v>
+        <v>0.3483951214489912</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17.06674056038541</v>
+        <v>15.02842144861761</v>
       </c>
       <c r="C19" t="n">
-        <v>1.927580182871323</v>
+        <v>6.146159280197887</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1560386450489685</v>
+        <v>0.6183821201183823</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17.86633425136117</v>
+        <v>15.06635767596782</v>
       </c>
       <c r="C20" t="n">
-        <v>6.837974839208904</v>
+        <v>2.568646337804601</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6395128343559593</v>
+        <v>0.269400651017131</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17.9581916292116</v>
+        <v>15.11050646237545</v>
       </c>
       <c r="C21" t="n">
-        <v>5.74976577757283</v>
+        <v>6.313082037310655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2588261128814615</v>
+        <v>0.5292128486573103</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18.40173765653909</v>
+        <v>16.20130609096615</v>
       </c>
       <c r="C22" t="n">
-        <v>3.935790539067545</v>
+        <v>2.425094502916512</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6241556011433365</v>
+        <v>0.3251955989367812</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>18.65841621072664</v>
+        <v>16.20358085278093</v>
       </c>
       <c r="C23" t="n">
-        <v>4.807695750136439</v>
+        <v>7.236848564545971</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9083783434842897</v>
+        <v>0.5409189480678777</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18.96974301542891</v>
+        <v>17.89173718803659</v>
       </c>
       <c r="C24" t="n">
-        <v>4.375959241547696</v>
+        <v>6.02451215453423</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5520868725597313</v>
+        <v>0.1655384278872105</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.17847676526607</v>
+        <v>19.00101976740372</v>
       </c>
       <c r="C25" t="n">
-        <v>2.400019235940543</v>
+        <v>5.312223665288556</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3932696975120738</v>
+        <v>0.6983802261454041</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.25399151734434</v>
+        <v>21.96342084820484</v>
       </c>
       <c r="C26" t="n">
-        <v>3.529352686257813</v>
+        <v>8.70273263220505</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4248755079732715</v>
+        <v>0.3232327633433972</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.73359614957679</v>
+        <v>23.12150818650329</v>
       </c>
       <c r="C27" t="n">
-        <v>7.79808969516625</v>
+        <v>1.549112677020837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7800643816254048</v>
+        <v>0.2391594125354689</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.884395209055</v>
+        <v>27.76021696186503</v>
       </c>
       <c r="C28" t="n">
-        <v>7.432941496521015</v>
+        <v>6.229938875529012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4155429237583756</v>
+        <v>0.2745892343424803</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.88867799879173</v>
+        <v>29.78737531342102</v>
       </c>
       <c r="C29" t="n">
-        <v>4.592982817678513</v>
+        <v>1.987771734452828</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2495677284996957</v>
+        <v>0.1516697688629537</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.22900460560693</v>
+        <v>32.55679835727022</v>
       </c>
       <c r="C30" t="n">
-        <v>3.969773001519171</v>
+        <v>3.150862172798674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3483672258534116</v>
+        <v>0.4448909123819124</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.55536726024036</v>
+        <v>32.59896663727622</v>
       </c>
       <c r="C31" t="n">
-        <v>7.423817505953565</v>
+        <v>5.225231939506639</v>
       </c>
       <c r="D31" t="n">
-        <v>0.752523109341437</v>
+        <v>0.6670842391712644</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.63680468553908</v>
+        <v>34.08119984383639</v>
       </c>
       <c r="C32" t="n">
-        <v>1.596702188836925</v>
+        <v>4.429375007160039</v>
       </c>
       <c r="D32" t="n">
-        <v>0.195407099049913</v>
+        <v>0.6480015967720008</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22.44340253872985</v>
+        <v>34.4736367781993</v>
       </c>
       <c r="C33" t="n">
-        <v>8.327888605022942</v>
+        <v>2.233884422806435</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7071396555695211</v>
+        <v>0.1875623069539809</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>24.19254725023081</v>
+        <v>35.2503993113063</v>
       </c>
       <c r="C34" t="n">
-        <v>4.157435044179541</v>
+        <v>4.29165060749324</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4354818640647322</v>
+        <v>0.328846610931646</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>24.42810847517115</v>
+        <v>35.26636557419308</v>
       </c>
       <c r="C35" t="n">
-        <v>2.714209019181924</v>
+        <v>4.952613239087165</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2792568048566054</v>
+        <v>0.5532061852017097</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.56583248356238</v>
+        <v>36.55539400449149</v>
       </c>
       <c r="C36" t="n">
-        <v>3.47846378306643</v>
+        <v>3.605883498908819</v>
       </c>
       <c r="D36" t="n">
-        <v>0.679515240109495</v>
+        <v>0.57485816902224</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.03837096160152</v>
+        <v>37.93693616760583</v>
       </c>
       <c r="C37" t="n">
-        <v>4.570966004326213</v>
+        <v>5.613111192436042</v>
       </c>
       <c r="D37" t="n">
-        <v>0.432756304522302</v>
+        <v>0.9267946383972953</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.55689011665331</v>
+        <v>37.99604823463591</v>
       </c>
       <c r="C38" t="n">
-        <v>3.373410007989465</v>
+        <v>7.354498387408279</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7874529891513973</v>
+        <v>0.5438795953897924</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.79496512508534</v>
+        <v>38.9813781348125</v>
       </c>
       <c r="C39" t="n">
-        <v>3.976708171691114</v>
+        <v>6.392041601554402</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6016405638935024</v>
+        <v>0.641064804895573</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.01019025212111</v>
+        <v>40.50513123523684</v>
       </c>
       <c r="C40" t="n">
-        <v>3.832069745894504</v>
+        <v>3.972543358786154</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5930589007966026</v>
+        <v>0.7189000345215422</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.88342798052161</v>
+        <v>42.03783103556098</v>
       </c>
       <c r="C41" t="n">
-        <v>10.44346551481785</v>
+        <v>3.880929142181187</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5041873994986579</v>
+        <v>0.1088977148061242</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30.82313733824527</v>
+        <v>44.18395093513018</v>
       </c>
       <c r="C42" t="n">
-        <v>2.725977162635664</v>
+        <v>9.895383301395867</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4412549248440847</v>
+        <v>0.6539149808494498</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.86529969896642</v>
+        <v>45.50620242694233</v>
       </c>
       <c r="C43" t="n">
-        <v>4.374679978654661</v>
+        <v>1.760946283213164</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4405261877230806</v>
+        <v>0.3944576213336813</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>37.42940043310058</v>
+        <v>46.31627780304329</v>
       </c>
       <c r="C44" t="n">
-        <v>9.34396431904856</v>
+        <v>7.769461506712054</v>
       </c>
       <c r="D44" t="n">
-        <v>0.753827505455802</v>
+        <v>0.6894494527524793</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.55684038070273</v>
+        <v>47.49139619184276</v>
       </c>
       <c r="C45" t="n">
-        <v>4.946555945471957</v>
+        <v>10.00654629945512</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2628577054592891</v>
+        <v>0.5515802047043081</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.57421535971428</v>
+        <v>49.74204220189992</v>
       </c>
       <c r="C46" t="n">
-        <v>2.925036374420867</v>
+        <v>4.36175840127184</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297991771510003</v>
+        <v>0.504615464183902</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40.63986379222327</v>
+        <v>49.77639737875684</v>
       </c>
       <c r="C47" t="n">
-        <v>1.585478000477679</v>
+        <v>3.063745388916412</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3029513273601117</v>
+        <v>0.3324454114066019</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.45789048578554</v>
+        <v>50.03415986989553</v>
       </c>
       <c r="C48" t="n">
-        <v>7.851429026864126</v>
+        <v>8.11535002618389</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6793385178651933</v>
+        <v>0.7339802848789487</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41.64611539898304</v>
+        <v>53.42412095040076</v>
       </c>
       <c r="C49" t="n">
-        <v>3.431231270501918</v>
+        <v>8.864218981097308</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5145481698563081</v>
+        <v>0.6686146346957546</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.72567100640988</v>
+        <v>55.355847495507</v>
       </c>
       <c r="C50" t="n">
-        <v>7.023155951626745</v>
+        <v>3.087851099972136</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6298394124375993</v>
+        <v>0.3052199447170817</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41.87912139089926</v>
+        <v>57.16973402539261</v>
       </c>
       <c r="C51" t="n">
-        <v>8.282552925362289</v>
+        <v>3.788422603226911</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4135063762884464</v>
+        <v>0.4373502556333071</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42.47724526665542</v>
+        <v>58.34554626172211</v>
       </c>
       <c r="C52" t="n">
-        <v>3.286620192110549</v>
+        <v>7.070243837999462</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3612347133189421</v>
+        <v>0.6703458945729444</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>42.57820517883595</v>
+        <v>58.55927620019605</v>
       </c>
       <c r="C53" t="n">
-        <v>4.253581059326253</v>
+        <v>3.651533988085718</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7956484528950227</v>
+        <v>0.4283910639843285</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>42.98036233986547</v>
+        <v>59.10557555190044</v>
       </c>
       <c r="C54" t="n">
-        <v>2.521236428617973</v>
+        <v>5.878327041470041</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3754650255018946</v>
+        <v>0.4880227584133268</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.3439982999077</v>
+        <v>61.15320133510506</v>
       </c>
       <c r="C55" t="n">
-        <v>3.240795855935746</v>
+        <v>4.324635319804874</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3556138162511415</v>
+        <v>0.5290031650698863</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>46.41180197751454</v>
+        <v>61.16953491454618</v>
       </c>
       <c r="C56" t="n">
-        <v>6.363015075841769</v>
+        <v>4.121667675765327</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3656222890033422</v>
+        <v>0.4028692588489678</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>46.44515955089611</v>
+        <v>63.35704197849158</v>
       </c>
       <c r="C57" t="n">
-        <v>2.986699970400916</v>
+        <v>6.458121051199313</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4134998711412811</v>
+        <v>0.5867455670931048</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>46.98338187524853</v>
+        <v>65.02369310953627</v>
       </c>
       <c r="C58" t="n">
-        <v>3.251026930860311</v>
+        <v>3.760083321222782</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2498057123291685</v>
+        <v>0.2142314286262657</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>47.09047575625748</v>
+        <v>68.28033840513318</v>
       </c>
       <c r="C59" t="n">
-        <v>3.354818706434723</v>
+        <v>4.736656739252884</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3818947450138727</v>
+        <v>0.9549914251832845</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.18262470440371</v>
+        <v>70.49118631741484</v>
       </c>
       <c r="C60" t="n">
-        <v>2.13299285820502</v>
+        <v>4.634884683848434</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2527108714731486</v>
+        <v>0.3033389003286942</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.30875892522933</v>
+        <v>71.27540421820233</v>
       </c>
       <c r="C61" t="n">
-        <v>5.618058263201147</v>
+        <v>5.779650629550156</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6214249081632641</v>
+        <v>0.6686648738023333</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>51.02661107288167</v>
+        <v>72.02737095373874</v>
       </c>
       <c r="C62" t="n">
-        <v>3.821094403431721</v>
+        <v>2.481205638454141</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4534522564750875</v>
+        <v>0.2480025047076792</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>52.14738178927519</v>
+        <v>72.28597200374725</v>
       </c>
       <c r="C63" t="n">
-        <v>5.435280267700138</v>
+        <v>4.423899684877235</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5255726165769317</v>
+        <v>0.3791991079559799</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53.06713929187137</v>
+        <v>72.71886240841438</v>
       </c>
       <c r="C64" t="n">
-        <v>6.133656023322588</v>
+        <v>1.823512248586058</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6575413846474466</v>
+        <v>0.4383817179873474</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>53.29735249527456</v>
+        <v>72.99385131262278</v>
       </c>
       <c r="C65" t="n">
-        <v>2.792877786812358</v>
+        <v>9.886039527786636</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4471000871772742</v>
+        <v>0.5866731089706841</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>54.84002150362179</v>
+        <v>73.74414110692814</v>
       </c>
       <c r="C66" t="n">
-        <v>4.851810394303674</v>
+        <v>7.791404741534319</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5974172937345615</v>
+        <v>0.6608922291887193</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58.39074629390137</v>
+        <v>73.74512621799123</v>
       </c>
       <c r="C67" t="n">
-        <v>5.84936419087866</v>
+        <v>2.843063678918446</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8086448478345769</v>
+        <v>0.2792824865241824</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>58.72576764185933</v>
+        <v>74.8498853958516</v>
       </c>
       <c r="C68" t="n">
-        <v>2.050762025801995</v>
+        <v>4.796109344285425</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3720158786627921</v>
+        <v>0.7048892458783536</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>60.01199627604125</v>
+        <v>75.94575446500875</v>
       </c>
       <c r="C69" t="n">
-        <v>8.048264908901613</v>
+        <v>4.84533082089899</v>
       </c>
       <c r="D69" t="n">
-        <v>0.554240283220768</v>
+        <v>0.3986625084389297</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>61.29680638813645</v>
+        <v>78.03451864886556</v>
       </c>
       <c r="C70" t="n">
-        <v>5.184812881829295</v>
+        <v>4.889134843901994</v>
       </c>
       <c r="D70" t="n">
-        <v>0.576359321010771</v>
+        <v>0.5426236928566256</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62.7456801934678</v>
+        <v>79.85666759982745</v>
       </c>
       <c r="C71" t="n">
-        <v>3.920417823967468</v>
+        <v>4.100843378045054</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6163604205505231</v>
+        <v>0.3971478925538173</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>62.94944701609477</v>
+        <v>80.53533351345925</v>
       </c>
       <c r="C72" t="n">
-        <v>4.980205504525689</v>
+        <v>4.552378699264292</v>
       </c>
       <c r="D72" t="n">
-        <v>0.594298082920716</v>
+        <v>0.4620638484862757</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>63.41073164835921</v>
+        <v>81.2500911584325</v>
       </c>
       <c r="C73" t="n">
-        <v>5.152837205783986</v>
+        <v>6.292393869600825</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6400119289829945</v>
+        <v>0.639965470412603</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>63.56517850633679</v>
+        <v>82.15876847527727</v>
       </c>
       <c r="C74" t="n">
-        <v>3.328916790569335</v>
+        <v>2.788370418268488</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4580239498363422</v>
+        <v>0.5087550194667861</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>64.03541241846453</v>
+        <v>82.5731385755923</v>
       </c>
       <c r="C75" t="n">
-        <v>5.344908929986067</v>
+        <v>7.185234200759761</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8639127429950044</v>
+        <v>0.3146793366036904</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>64.82650122572689</v>
+        <v>82.91150122962158</v>
       </c>
       <c r="C76" t="n">
-        <v>4.414923457548921</v>
+        <v>5.615530947346538</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5369567644080959</v>
+        <v>0.5903014234875592</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>65.40817619910403</v>
+        <v>83.34767422700162</v>
       </c>
       <c r="C77" t="n">
-        <v>8.066510060089836</v>
+        <v>6.924382471779801</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6896435541285307</v>
+        <v>0.4547577833454775</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>72.55649865355134</v>
+        <v>83.81487035065062</v>
       </c>
       <c r="C78" t="n">
-        <v>6.106774205633022</v>
+        <v>5.542241259979358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2673059072328781</v>
+        <v>0.8146104772506042</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>72.98090927009147</v>
+        <v>88.04645585450756</v>
       </c>
       <c r="C79" t="n">
-        <v>3.277608229960332</v>
+        <v>4.583989730489037</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4502974143881453</v>
+        <v>0.2800054606811543</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77.27420856250767</v>
+        <v>88.27122539014303</v>
       </c>
       <c r="C80" t="n">
-        <v>7.097123223614956</v>
+        <v>2.992799492962165</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5816908558158236</v>
+        <v>0.5168678143846966</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>77.46779421889246</v>
+        <v>88.32245044742349</v>
       </c>
       <c r="C81" t="n">
-        <v>5.899269197707528</v>
+        <v>3.645679779728352</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8285139749956348</v>
+        <v>0.7134556142203892</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>78.19866349636327</v>
+        <v>89.84770571258979</v>
       </c>
       <c r="C82" t="n">
-        <v>5.478635458638488</v>
+        <v>5.296716717486967</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6106586617414095</v>
+        <v>0.2601774252897312</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>78.40325519058504</v>
+        <v>90.73072817693549</v>
       </c>
       <c r="C83" t="n">
-        <v>3.306062383867522</v>
+        <v>7.526361339574716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5440796084685183</v>
+        <v>0.7685699610472285</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>78.55625294306347</v>
+        <v>91.31693348994808</v>
       </c>
       <c r="C84" t="n">
-        <v>4.837427606071005</v>
+        <v>6.981715978446384</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8517172759935348</v>
+        <v>0.5404386583077631</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>79.97786114454128</v>
+        <v>93.88028116158235</v>
       </c>
       <c r="C85" t="n">
-        <v>2.447315319209974</v>
+        <v>7.095621834770586</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2548337367386745</v>
+        <v>0.6628205494292979</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>80.23425273397078</v>
+        <v>94.81484687872268</v>
       </c>
       <c r="C86" t="n">
-        <v>2.032468084854049</v>
+        <v>2.285749743349555</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2722185294211262</v>
+        <v>0.3829917926969842</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>82.51528508951398</v>
+        <v>94.86987841919793</v>
       </c>
       <c r="C87" t="n">
-        <v>1.472682222284299</v>
+        <v>11.9684850697072</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3678296983373651</v>
+        <v>0.4770342571823358</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>82.73835122316684</v>
+        <v>94.95098138224843</v>
       </c>
       <c r="C88" t="n">
-        <v>1.944957912407927</v>
+        <v>4.156314839067518</v>
       </c>
       <c r="D88" t="n">
-        <v>0.277058478983891</v>
+        <v>0.3471298180781005</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.73959226476062</v>
+        <v>99.02841382607485</v>
       </c>
       <c r="C89" t="n">
-        <v>6.311789024724542</v>
+        <v>5.361305864093239</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7168292316518786</v>
+        <v>0.5120202596838853</v>
       </c>
     </row>
     <row r="90">
@@ -1687,237 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83.03005197793419</v>
+        <v>99.39116541191254</v>
       </c>
       <c r="C90" t="n">
-        <v>3.725135776545042</v>
+        <v>6.071665363816084</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5765695445600687</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>83.15258249868799</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.907298786248237</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.6417472051565887</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>84.34849878683229</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.627741904757776</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.5939270562667036</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>87.43640294230971</v>
-      </c>
-      <c r="C93" t="n">
-        <v>6.731996433452385</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.5174571120516431</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>87.76071448297854</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.174679652498415</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.3239874489167618</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>88.06556585745899</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.279575157601751</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.6113530442858184</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>88.20298052919028</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.449461622839489</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.5631770819143816</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>92.22770284392341</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.037938157321812</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.435472575290296</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>92.34965945089121</v>
-      </c>
-      <c r="C98" t="n">
-        <v>7.107067674423466</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.5099436801430739</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>93.36632979079884</v>
-      </c>
-      <c r="C99" t="n">
-        <v>5.923633567396271</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.7172838009754015</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>93.88280634129089</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.980635153279533</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.3755277476110048</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>94.42750450643048</v>
-      </c>
-      <c r="C101" t="n">
-        <v>7.966087802104493</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.4811136272471374</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>94.67066269217723</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.635456017080656</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.3811972461816309</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>95.66805297182933</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5.862182626704779</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.6666491743579731</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>96.34001036624538</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3.132008444354447</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.4565609756868002</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>97.95791378900509</v>
-      </c>
-      <c r="C105" t="n">
-        <v>4.030818071039977</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.1523962886579863</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>98.61860850119818</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3.453189147417795</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.4794904895600695</v>
+        <v>0.6060342546520882</v>
       </c>
     </row>
   </sheetData>
